--- a/2.Simulation/Sim_results.xlsx
+++ b/2.Simulation/Sim_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/johannamunoz/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F502562-1588-884C-89FC-7DC83C20B438}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{310994F7-C84F-D64B-A915-23EB094DF08F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="25600" windowHeight="14400" activeTab="3" xr2:uid="{DC0BC952-AACA-B145-BB83-BD649808B36D}"/>
+    <workbookView xWindow="900" yWindow="1480" windowWidth="25600" windowHeight="14400" activeTab="3" xr2:uid="{DC0BC952-AACA-B145-BB83-BD649808B36D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38432,8 +38432,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEA9965-9F07-DD49-A5E5-6730667C7B83}">
   <dimension ref="A1:CA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F54" sqref="F54:CA57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43:M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -38715,7 +38715,7 @@
         <v>0.88336202542116804</v>
       </c>
       <c r="M2" s="8">
-        <v>6.1340332031250004E-6</v>
+        <v>0</v>
       </c>
       <c r="N2" s="4">
         <v>60.337699999999998</v>
@@ -39671,7 +39671,7 @@
         <v>0.95159301699819698</v>
       </c>
       <c r="M6" s="8">
-        <v>5.6066513061523399E-6</v>
+        <v>0</v>
       </c>
       <c r="N6" s="4">
         <v>60.357439999999997</v>
@@ -40627,7 +40627,7 @@
         <v>0.99020749207245995</v>
       </c>
       <c r="M10" s="8">
-        <v>5.5313110351562498E-6</v>
+        <v>0</v>
       </c>
       <c r="N10" s="4">
         <v>60.375320000000002</v>
@@ -41583,7 +41583,7 @@
         <v>1.0023836428727799</v>
       </c>
       <c r="M14" s="8">
-        <v>5.9971809387206997E-6</v>
+        <v>0</v>
       </c>
       <c r="N14" s="4">
         <v>60.394919999999999</v>
@@ -42539,7 +42539,7 @@
         <v>1</v>
       </c>
       <c r="M18" s="8">
-        <v>7.8425407409667999E-6</v>
+        <v>0</v>
       </c>
       <c r="N18" s="4">
         <v>60.337699999999998</v>
@@ -43495,7 +43495,7 @@
         <v>1</v>
       </c>
       <c r="M22" s="8">
-        <v>6.7806243896484403E-6</v>
+        <v>0</v>
       </c>
       <c r="N22" s="4">
         <v>60.357439999999997</v>
@@ -44451,7 +44451,7 @@
         <v>1</v>
       </c>
       <c r="M26" s="8">
-        <v>6.4558982849121101E-6</v>
+        <v>0</v>
       </c>
       <c r="N26" s="4">
         <v>60.375320000000002</v>
@@ -45407,7 +45407,7 @@
         <v>1</v>
       </c>
       <c r="M30" s="8">
-        <v>7.1034431457519499E-6</v>
+        <v>0</v>
       </c>
       <c r="N30" s="4">
         <v>60.394919999999999</v>
@@ -46363,7 +46363,7 @@
         <v>0.95143071517479505</v>
       </c>
       <c r="M34" s="8">
-        <v>6.8559646606445296E-6</v>
+        <v>0</v>
       </c>
       <c r="N34" s="4">
         <v>60.507733999999999</v>
@@ -46602,7 +46602,7 @@
         <v>1.03770765856617</v>
       </c>
       <c r="M35" s="4">
-        <v>2.8030011792341898</v>
+        <v>152.56350212574</v>
       </c>
       <c r="N35" s="4">
         <v>60.507733999999999</v>
@@ -46841,7 +46841,7 @@
         <v>0.95497655323670105</v>
       </c>
       <c r="M36" s="4">
-        <v>28.015911603403101</v>
+        <v>25.784142787933298</v>
       </c>
       <c r="N36" s="4">
         <v>60.507733999999999</v>
@@ -47080,7 +47080,7 @@
         <v>1.25437285873502</v>
       </c>
       <c r="M37" s="4">
-        <v>2.0153880978504799</v>
+        <v>112.06505789089201</v>
       </c>
       <c r="N37" s="4">
         <v>60.507733999999999</v>
@@ -47319,7 +47319,7 @@
         <v>0.95206076929503802</v>
       </c>
       <c r="M38" s="8">
-        <v>5.6576728820800799E-6</v>
+        <v>0</v>
       </c>
       <c r="N38" s="4">
         <v>60.549487999999997</v>
@@ -47558,7 +47558,8 @@
         <v>1.0387313636428599</v>
       </c>
       <c r="M39" s="4">
-        <v>6.71610182477633</v>
+        <f>106.716101824776</f>
+        <v>106.716101824776</v>
       </c>
       <c r="N39" s="4">
         <v>60.549487999999997</v>
@@ -47797,7 +47798,7 @@
         <v>0.95565924213758402</v>
       </c>
       <c r="M40" s="4">
-        <v>8.8983043050766</v>
+        <v>18.8983043050766</v>
       </c>
       <c r="N40" s="4">
         <v>60.549487999999997</v>
@@ -48036,7 +48037,7 @@
         <v>1.25706724442105</v>
       </c>
       <c r="M41" s="4">
-        <v>39.047492541337</v>
+        <v>99.047492541336993</v>
       </c>
       <c r="N41" s="4">
         <v>60.549487999999997</v>
@@ -48275,7 +48276,7 @@
         <v>0.94911089200770304</v>
       </c>
       <c r="M42" s="8">
-        <v>5.4435729980468803E-6</v>
+        <v>0</v>
       </c>
       <c r="N42" s="4">
         <v>60.496000000000002</v>
@@ -48514,7 +48515,7 @@
         <v>1.1209467010284599</v>
       </c>
       <c r="M43" s="4">
-        <v>12.476442744255101</v>
+        <v>13.551183990478499</v>
       </c>
       <c r="N43" s="4">
         <v>60.496000000000002</v>
@@ -48753,7 +48754,7 @@
         <v>0.96659206860401004</v>
       </c>
       <c r="M44" s="4">
-        <v>0.50964487291768001</v>
+        <v>0.53118773841857903</v>
       </c>
       <c r="N44" s="4">
         <v>60.465531062124199</v>
@@ -48992,7 +48993,7 @@
         <v>1.26001103576953</v>
       </c>
       <c r="M45" s="4">
-        <v>1.7662875919342</v>
+        <v>1.82508532047272</v>
       </c>
       <c r="N45" s="4">
         <v>60.496000000000002</v>
@@ -49231,7 +49232,7 @@
         <v>0.94967033257724998</v>
       </c>
       <c r="M46" s="8">
-        <v>5.3439140319824197E-6</v>
+        <v>0</v>
       </c>
       <c r="N46" s="4">
         <v>60.311599999999999</v>
@@ -50187,7 +50188,7 @@
         <v>0.95159301699819698</v>
       </c>
       <c r="M50" s="8">
-        <v>5.6066513061523399E-6</v>
+        <v>0</v>
       </c>
       <c r="N50" s="4">
         <v>60.357439999999997</v>
@@ -51143,7 +51144,7 @@
         <v>0.84210757756379995</v>
       </c>
       <c r="M54" s="8">
-        <v>5.4273605346679703E-6</v>
+        <v>0</v>
       </c>
       <c r="N54" s="4">
         <v>60.401440000000001</v>
@@ -52099,7 +52100,7 @@
         <v>0.93141802143526697</v>
       </c>
       <c r="M58" s="8">
-        <v>5.5723190307617204E-6</v>
+        <v>0</v>
       </c>
       <c r="N58" s="4">
         <v>60.364980000000003</v>
@@ -53055,7 +53056,7 @@
         <v>0.95159301699819698</v>
       </c>
       <c r="M62" s="8">
-        <v>5.6066513061523399E-6</v>
+        <v>0</v>
       </c>
       <c r="N62" s="4">
         <v>60.357439999999997</v>

--- a/2.Simulation/Sim_results.xlsx
+++ b/2.Simulation/Sim_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Statsmed_Heckman/2.Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46E232B8-9507-DE42-B29F-1D4FFE4E3417}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B1ACA4-96C4-5241-ACB2-63F958BF9BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="900" windowWidth="25600" windowHeight="14400" xr2:uid="{DC0BC952-AACA-B145-BB83-BD649808B36D}"/>
+    <workbookView xWindow="2180" yWindow="900" windowWidth="25600" windowHeight="14400" xr2:uid="{DC0BC952-AACA-B145-BB83-BD649808B36D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
@@ -23,9 +23,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -221,15 +224,6 @@
     <t>10-50</t>
   </si>
   <si>
-    <t>R=f(Y)</t>
-  </si>
-  <si>
-    <t>e~BVN</t>
-  </si>
-  <si>
-    <t>e~BVGamma</t>
-  </si>
-  <si>
     <t>RMSE_Qbar_0</t>
   </si>
   <si>
@@ -319,12 +313,21 @@
   <si>
     <t>CIW_2</t>
   </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Skewed-t</t>
+  </si>
+  <si>
+    <t>ry*=f(y*)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -372,6 +375,12 @@
       <name val="Helvetica Neue"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -399,7 +408,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -412,29 +421,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <name val="Helvetica Neue"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-    </dxf>
+  <dxfs count="80">
     <dxf>
       <font>
         <b val="0"/>
@@ -1890,22 +1883,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3EF2931-9DB1-0846-A95E-06E16F507CF8}" name="Table2" displayName="Table2" ref="A1:CA65" totalsRowShown="0" headerRowDxfId="80" dataDxfId="79">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E3EF2931-9DB1-0846-A95E-06E16F507CF8}" name="Table2" displayName="Table2" ref="A1:CA65" totalsRowShown="0" headerRowDxfId="79" dataDxfId="78">
   <autoFilter ref="A1:CA65" xr:uid="{E3EF2931-9DB1-0846-A95E-06E16F507CF8}"/>
   <tableColumns count="79">
-    <tableColumn id="1" xr3:uid="{8E288E89-F5A2-7B48-B5AF-61CB4B601342}" name="Scenario" dataDxfId="78"/>
-    <tableColumn id="2" xr3:uid="{688F7141-B609-214B-9810-83BB3E98CD48}" name="Ns" dataDxfId="77"/>
-    <tableColumn id="3" xr3:uid="{DDA05A2D-FB89-BE4F-A9AD-9A4467C75C44}" name="ni" dataDxfId="76"/>
-    <tableColumn id="4" xr3:uid="{E8AE1674-9FA8-9D4C-832D-26040F904703}" name="Variation" dataDxfId="75"/>
-    <tableColumn id="5" xr3:uid="{A05D89BD-1838-C04F-A7C8-0CF2957F851F}" name="Method" dataDxfId="74"/>
-    <tableColumn id="6" xr3:uid="{B9968A24-E085-CB4C-9CED-EF7CDC58C4CF}" name="Qbar_0" dataDxfId="73"/>
-    <tableColumn id="7" xr3:uid="{F0D34392-138C-1842-98A2-AFB32287F04F}" name="Qbar_1" dataDxfId="72"/>
-    <tableColumn id="8" xr3:uid="{F1BCB0DF-A5C4-3B4F-B7D0-085D6FD37ACA}" name="Qbar_2" dataDxfId="71"/>
-    <tableColumn id="9" xr3:uid="{6A9DE3F2-D930-0A40-A5F1-46580560574B}" name="Re_0" dataDxfId="70"/>
-    <tableColumn id="10" xr3:uid="{D3FF561F-741A-DF44-8FDF-4EC01C438F4A}" name="Re_1" dataDxfId="69"/>
-    <tableColumn id="11" xr3:uid="{3F0EC1C1-EA7C-D54A-812A-1492188DA004}" name="Re_2" dataDxfId="68"/>
-    <tableColumn id="12" xr3:uid="{AAFAA39E-7CE4-AE46-AA5E-81AC06BB4171}" name="Re_3" dataDxfId="67"/>
-    <tableColumn id="13" xr3:uid="{B238620F-1AA5-BC47-ADBE-1858D73659B7}" name="time" dataDxfId="66"/>
+    <tableColumn id="1" xr3:uid="{8E288E89-F5A2-7B48-B5AF-61CB4B601342}" name="Scenario" dataDxfId="77"/>
+    <tableColumn id="2" xr3:uid="{688F7141-B609-214B-9810-83BB3E98CD48}" name="Ns" dataDxfId="76"/>
+    <tableColumn id="3" xr3:uid="{DDA05A2D-FB89-BE4F-A9AD-9A4467C75C44}" name="ni" dataDxfId="75"/>
+    <tableColumn id="4" xr3:uid="{E8AE1674-9FA8-9D4C-832D-26040F904703}" name="Variation" dataDxfId="74"/>
+    <tableColumn id="5" xr3:uid="{A05D89BD-1838-C04F-A7C8-0CF2957F851F}" name="Method" dataDxfId="73"/>
+    <tableColumn id="6" xr3:uid="{B9968A24-E085-CB4C-9CED-EF7CDC58C4CF}" name="Qbar_0" dataDxfId="72"/>
+    <tableColumn id="7" xr3:uid="{F0D34392-138C-1842-98A2-AFB32287F04F}" name="Qbar_1" dataDxfId="71"/>
+    <tableColumn id="8" xr3:uid="{F1BCB0DF-A5C4-3B4F-B7D0-085D6FD37ACA}" name="Qbar_2" dataDxfId="70"/>
+    <tableColumn id="9" xr3:uid="{6A9DE3F2-D930-0A40-A5F1-46580560574B}" name="Re_0" dataDxfId="69"/>
+    <tableColumn id="10" xr3:uid="{D3FF561F-741A-DF44-8FDF-4EC01C438F4A}" name="Re_1" dataDxfId="68"/>
+    <tableColumn id="11" xr3:uid="{3F0EC1C1-EA7C-D54A-812A-1492188DA004}" name="Re_2" dataDxfId="67"/>
+    <tableColumn id="12" xr3:uid="{AAFAA39E-7CE4-AE46-AA5E-81AC06BB4171}" name="Re_3" dataDxfId="66"/>
+    <tableColumn id="13" xr3:uid="{B238620F-1AA5-BC47-ADBE-1858D73659B7}" name="time"/>
     <tableColumn id="14" xr3:uid="{3D609932-15BC-694C-8A42-314455CA3C14}" name="pmis" dataDxfId="65"/>
     <tableColumn id="15" xr3:uid="{4D13B911-648D-3545-95A6-4C6A528D2EE5}" name="Cov_0" dataDxfId="64"/>
     <tableColumn id="16" xr3:uid="{7FC31E4E-7C17-4047-804A-7CACCEC315C3}" name="Cov_1" dataDxfId="63"/>
@@ -2276,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEA9965-9F07-DD49-A5E5-6730667C7B83}">
   <dimension ref="A1:CA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="D69" sqref="D69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2396,34 +2389,34 @@
         <v>30</v>
       </c>
       <c r="AF1" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI1" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AJ1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="AH1" s="11" t="s">
+      <c r="AK1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="AI1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="AJ1" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AK1" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL1" s="11" t="s">
-        <v>71</v>
-      </c>
       <c r="AM1" s="11" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AN1" s="11" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AP1" s="11" t="s">
         <v>31</v>
@@ -2459,25 +2452,25 @@
         <v>41</v>
       </c>
       <c r="BA1" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="BB1" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="BC1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BD1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BE1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="BC1" s="11" t="s">
+      <c r="BF1" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="BD1" s="11" t="s">
+      <c r="BG1" s="11" t="s">
         <v>75</v>
-      </c>
-      <c r="BE1" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="BF1" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="BG1" s="11" t="s">
-        <v>78</v>
       </c>
       <c r="BH1" s="11" t="s">
         <v>50</v>
@@ -2501,43 +2494,43 @@
         <v>56</v>
       </c>
       <c r="BO1" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="BP1" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="BQ1" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="BR1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="BP1" s="11" t="s">
+      <c r="BS1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="BQ1" s="11" t="s">
+      <c r="BT1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="BR1" s="11" t="s">
+      <c r="BU1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="BS1" s="11" t="s">
+      <c r="BV1" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="BT1" s="11" t="s">
+      <c r="BW1" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="BU1" s="11" t="s">
+      <c r="BX1" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="BV1" s="11" t="s">
+      <c r="BY1" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="BW1" s="11" t="s">
+      <c r="BZ1" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="BX1" s="11" t="s">
+      <c r="CA1" s="11" t="s">
         <v>88</v>
-      </c>
-      <c r="BY1" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="BZ1" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="CA1" s="11" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:79" x14ac:dyDescent="0.2">
@@ -2577,8 +2570,8 @@
       <c r="L2" s="3">
         <v>0.88336202542116804</v>
       </c>
-      <c r="M2" s="6">
-        <v>6.1340332031250004E-6</v>
+      <c r="M2" s="12">
+        <v>0</v>
       </c>
       <c r="N2" s="3">
         <v>60.337699999999998</v>
@@ -2816,8 +2809,8 @@
       <c r="L3" s="3">
         <v>1.08528435201712</v>
       </c>
-      <c r="M3" s="3">
-        <v>18.846271286964399</v>
+      <c r="M3" s="13">
+        <v>18.846271300000002</v>
       </c>
       <c r="N3" s="3">
         <v>60.337699999999998</v>
@@ -3055,8 +3048,8 @@
       <c r="L4" s="3">
         <v>0.89161160172941301</v>
       </c>
-      <c r="M4" s="3">
-        <v>1.41098885679245</v>
+      <c r="M4" s="13">
+        <v>1.41098886</v>
       </c>
       <c r="N4" s="3">
         <v>60.337699999999998</v>
@@ -3294,8 +3287,8 @@
       <c r="L5" s="3">
         <v>1.2828816845282001</v>
       </c>
-      <c r="M5" s="3">
-        <v>9.94710703039169</v>
+      <c r="M5" s="13">
+        <v>9.9471070299999997</v>
       </c>
       <c r="N5" s="3">
         <v>60.337699999999998</v>
@@ -3533,8 +3526,8 @@
       <c r="L6" s="3">
         <v>0.95159301699819698</v>
       </c>
-      <c r="M6" s="6">
-        <v>5.6066513061523399E-6</v>
+      <c r="M6" s="12">
+        <v>0</v>
       </c>
       <c r="N6" s="3">
         <v>60.357439999999997</v>
@@ -3772,8 +3765,8 @@
       <c r="L7" s="3">
         <v>1.04089807065747</v>
       </c>
-      <c r="M7" s="3">
-        <v>16.676928522586799</v>
+      <c r="M7" s="13">
+        <v>16.676928499999999</v>
       </c>
       <c r="N7" s="3">
         <v>60.357439999999997</v>
@@ -4011,8 +4004,8 @@
       <c r="L8" s="3">
         <v>0.95637551439483603</v>
       </c>
-      <c r="M8" s="3">
-        <v>1.32950519132614</v>
+      <c r="M8" s="13">
+        <v>1.3295051899999999</v>
       </c>
       <c r="N8" s="3">
         <v>60.357439999999997</v>
@@ -4250,8 +4243,8 @@
       <c r="L9" s="3">
         <v>1.24232327186603</v>
       </c>
-      <c r="M9" s="3">
-        <v>9.6227689352035508</v>
+      <c r="M9" s="13">
+        <v>9.6227689400000003</v>
       </c>
       <c r="N9" s="3">
         <v>60.357439999999997</v>
@@ -4489,8 +4482,8 @@
       <c r="L10" s="3">
         <v>0.99020749207245995</v>
       </c>
-      <c r="M10" s="6">
-        <v>5.5313110351562498E-6</v>
+      <c r="M10" s="12">
+        <v>0</v>
       </c>
       <c r="N10" s="3">
         <v>60.375320000000002</v>
@@ -4728,8 +4721,8 @@
       <c r="L11" s="3">
         <v>1.0159227598480201</v>
       </c>
-      <c r="M11" s="3">
-        <v>16.568758162498501</v>
+      <c r="M11" s="13">
+        <v>16.568758200000001</v>
       </c>
       <c r="N11" s="3">
         <v>60.375320000000002</v>
@@ -4967,8 +4960,8 @@
       <c r="L12" s="3">
         <v>0.99195798003485103</v>
       </c>
-      <c r="M12" s="3">
-        <v>1.3034780478477499</v>
+      <c r="M12" s="13">
+        <v>1.3034780500000001</v>
       </c>
       <c r="N12" s="3">
         <v>60.375320000000002</v>
@@ -5206,8 +5199,8 @@
       <c r="L13" s="3">
         <v>1.20563140710344</v>
       </c>
-      <c r="M13" s="3">
-        <v>9.8157512621879608</v>
+      <c r="M13" s="13">
+        <v>9.8157512600000008</v>
       </c>
       <c r="N13" s="3">
         <v>60.375320000000002</v>
@@ -5445,8 +5438,8 @@
       <c r="L14" s="3">
         <v>1.0023836428727799</v>
       </c>
-      <c r="M14" s="6">
-        <v>5.9971809387206997E-6</v>
+      <c r="M14" s="12">
+        <v>0</v>
       </c>
       <c r="N14" s="3">
         <v>60.394919999999999</v>
@@ -5684,8 +5677,8 @@
       <c r="L15" s="3">
         <v>1.0070967105088</v>
       </c>
-      <c r="M15" s="3">
-        <v>18.5901716685295</v>
+      <c r="M15" s="13">
+        <v>18.590171699999999</v>
       </c>
       <c r="N15" s="3">
         <v>60.394919999999999</v>
@@ -5923,8 +5916,8 @@
       <c r="L16" s="3">
         <v>1.0031283731059999</v>
       </c>
-      <c r="M16" s="3">
-        <v>1.4010414476394699</v>
+      <c r="M16" s="13">
+        <v>1.4010414499999999</v>
       </c>
       <c r="N16" s="3">
         <v>60.394919999999999</v>
@@ -6162,8 +6155,8 @@
       <c r="L17" s="3">
         <v>1.19074843171482</v>
       </c>
-      <c r="M17" s="3">
-        <v>10.670820225238799</v>
+      <c r="M17" s="13">
+        <v>10.6708202</v>
       </c>
       <c r="N17" s="3">
         <v>60.394919999999999</v>
@@ -6401,8 +6394,8 @@
       <c r="L18" s="3">
         <v>1</v>
       </c>
-      <c r="M18" s="6">
-        <v>7.8425407409667999E-6</v>
+      <c r="M18" s="12">
+        <v>0</v>
       </c>
       <c r="N18" s="3">
         <v>60.337699999999998</v>
@@ -6640,8 +6633,8 @@
       <c r="L19" s="3">
         <v>1</v>
       </c>
-      <c r="M19" s="3">
-        <v>19.335923847198501</v>
+      <c r="M19" s="13">
+        <v>19.3359238</v>
       </c>
       <c r="N19" s="3">
         <v>60.337699999999998</v>
@@ -6879,8 +6872,8 @@
       <c r="L20" s="3">
         <v>1</v>
       </c>
-      <c r="M20" s="3">
-        <v>1.7254092173576401</v>
+      <c r="M20" s="13">
+        <v>1.72540922</v>
       </c>
       <c r="N20" s="3">
         <v>60.337699999999998</v>
@@ -7118,8 +7111,8 @@
       <c r="L21" s="3">
         <v>1</v>
       </c>
-      <c r="M21" s="3">
-        <v>8.3887219161987296</v>
+      <c r="M21" s="13">
+        <v>8.3887219200000001</v>
       </c>
       <c r="N21" s="3">
         <v>60.337699999999998</v>
@@ -7357,8 +7350,8 @@
       <c r="L22" s="3">
         <v>1</v>
       </c>
-      <c r="M22" s="6">
-        <v>6.7806243896484403E-6</v>
+      <c r="M22" s="12">
+        <v>0</v>
       </c>
       <c r="N22" s="3">
         <v>60.357439999999997</v>
@@ -7596,8 +7589,8 @@
       <c r="L23" s="3">
         <v>1</v>
       </c>
-      <c r="M23" s="3">
-        <v>14.1742068505287</v>
+      <c r="M23" s="13">
+        <v>14.1742069</v>
       </c>
       <c r="N23" s="3">
         <v>60.357439999999997</v>
@@ -7835,8 +7828,8 @@
       <c r="L24" s="3">
         <v>1</v>
       </c>
-      <c r="M24" s="3">
-        <v>1.58642131137848</v>
+      <c r="M24" s="13">
+        <v>1.58642131</v>
       </c>
       <c r="N24" s="3">
         <v>60.357439999999997</v>
@@ -8074,8 +8067,8 @@
       <c r="L25" s="3">
         <v>1</v>
       </c>
-      <c r="M25" s="3">
-        <v>7.2818952746391297</v>
+      <c r="M25" s="13">
+        <v>7.2818952699999997</v>
       </c>
       <c r="N25" s="3">
         <v>60.357439999999997</v>
@@ -8313,8 +8306,8 @@
       <c r="L26" s="3">
         <v>1</v>
       </c>
-      <c r="M26" s="6">
-        <v>6.4558982849121101E-6</v>
+      <c r="M26" s="12">
+        <v>0</v>
       </c>
       <c r="N26" s="3">
         <v>60.375320000000002</v>
@@ -8552,8 +8545,8 @@
       <c r="L27" s="3">
         <v>1</v>
       </c>
-      <c r="M27" s="3">
-        <v>12.7856757464409</v>
+      <c r="M27" s="13">
+        <v>12.785675700000001</v>
       </c>
       <c r="N27" s="3">
         <v>60.375320000000002</v>
@@ -8791,8 +8784,8 @@
       <c r="L28" s="3">
         <v>1</v>
       </c>
-      <c r="M28" s="3">
-        <v>1.5445812163353001</v>
+      <c r="M28" s="13">
+        <v>1.54458122</v>
       </c>
       <c r="N28" s="3">
         <v>60.375320000000002</v>
@@ -9030,8 +9023,8 @@
       <c r="L29" s="3">
         <v>1</v>
       </c>
-      <c r="M29" s="3">
-        <v>6.7359004373550402</v>
+      <c r="M29" s="13">
+        <v>6.73590044</v>
       </c>
       <c r="N29" s="3">
         <v>60.375320000000002</v>
@@ -9269,8 +9262,8 @@
       <c r="L30" s="3">
         <v>1</v>
       </c>
-      <c r="M30" s="6">
-        <v>7.1034431457519499E-6</v>
+      <c r="M30" s="12">
+        <v>0</v>
       </c>
       <c r="N30" s="3">
         <v>60.394919999999999</v>
@@ -9508,8 +9501,8 @@
       <c r="L31" s="3">
         <v>1</v>
       </c>
-      <c r="M31" s="3">
-        <v>13.686299760341599</v>
+      <c r="M31" s="13">
+        <v>13.6862998</v>
       </c>
       <c r="N31" s="3">
         <v>60.394919999999999</v>
@@ -9747,8 +9740,8 @@
       <c r="L32" s="3">
         <v>1</v>
       </c>
-      <c r="M32" s="3">
-        <v>1.6153912281990099</v>
+      <c r="M32" s="13">
+        <v>1.61539123</v>
       </c>
       <c r="N32" s="3">
         <v>60.394919999999999</v>
@@ -9986,8 +9979,8 @@
       <c r="L33" s="3">
         <v>1</v>
       </c>
-      <c r="M33" s="3">
-        <v>7.03097013664246</v>
+      <c r="M33" s="13">
+        <v>7.03097014</v>
       </c>
       <c r="N33" s="3">
         <v>60.394919999999999</v>
@@ -10225,8 +10218,8 @@
       <c r="L34" s="3">
         <v>0.95143071517479505</v>
       </c>
-      <c r="M34" s="6">
-        <v>6.8559646606445296E-6</v>
+      <c r="M34" s="12">
+        <v>0</v>
       </c>
       <c r="N34" s="3">
         <v>60.507733999999999</v>
@@ -10464,8 +10457,8 @@
       <c r="L35" s="3">
         <v>1.03770765856617</v>
       </c>
-      <c r="M35" s="3">
-        <v>2.8030011792341898</v>
+      <c r="M35" s="13">
+        <v>152.563502</v>
       </c>
       <c r="N35" s="3">
         <v>60.507733999999999</v>
@@ -10703,8 +10696,8 @@
       <c r="L36" s="3">
         <v>0.95497655323670105</v>
       </c>
-      <c r="M36" s="3">
-        <v>28.015911603403101</v>
+      <c r="M36" s="13">
+        <v>25.784142800000001</v>
       </c>
       <c r="N36" s="3">
         <v>60.507733999999999</v>
@@ -10942,8 +10935,8 @@
       <c r="L37" s="3">
         <v>1.25437285873502</v>
       </c>
-      <c r="M37" s="3">
-        <v>2.0153880978504799</v>
+      <c r="M37" s="13">
+        <v>112.06505799999999</v>
       </c>
       <c r="N37" s="3">
         <v>60.507733999999999</v>
@@ -11181,8 +11174,8 @@
       <c r="L38" s="3">
         <v>0.95206076929503802</v>
       </c>
-      <c r="M38" s="6">
-        <v>5.6576728820800799E-6</v>
+      <c r="M38" s="12">
+        <v>0</v>
       </c>
       <c r="N38" s="3">
         <v>60.549487999999997</v>
@@ -11420,8 +11413,8 @@
       <c r="L39" s="3">
         <v>1.0387313636428599</v>
       </c>
-      <c r="M39" s="3">
-        <v>6.71610182477633</v>
+      <c r="M39" s="13">
+        <v>106.71610200000001</v>
       </c>
       <c r="N39" s="3">
         <v>60.549487999999997</v>
@@ -11659,8 +11652,8 @@
       <c r="L40" s="3">
         <v>0.95565924213758402</v>
       </c>
-      <c r="M40" s="3">
-        <v>8.8983043050766</v>
+      <c r="M40" s="13">
+        <v>18.8983043</v>
       </c>
       <c r="N40" s="3">
         <v>60.549487999999997</v>
@@ -11898,8 +11891,8 @@
       <c r="L41" s="3">
         <v>1.25706724442105</v>
       </c>
-      <c r="M41" s="3">
-        <v>39.047492541337</v>
+      <c r="M41" s="13">
+        <v>99.047492500000004</v>
       </c>
       <c r="N41" s="3">
         <v>60.549487999999997</v>
@@ -12137,8 +12130,8 @@
       <c r="L42" s="3">
         <v>0.94911089200770304</v>
       </c>
-      <c r="M42" s="6">
-        <v>5.4435729980468803E-6</v>
+      <c r="M42" s="12">
+        <v>0</v>
       </c>
       <c r="N42" s="3">
         <v>60.496000000000002</v>
@@ -12376,8 +12369,8 @@
       <c r="L43" s="3">
         <v>1.1209467010284599</v>
       </c>
-      <c r="M43" s="3">
-        <v>12.476442744255101</v>
+      <c r="M43" s="13">
+        <v>13.551183999999999</v>
       </c>
       <c r="N43" s="3">
         <v>60.496000000000002</v>
@@ -12615,8 +12608,8 @@
       <c r="L44" s="3">
         <v>0.96659206860401004</v>
       </c>
-      <c r="M44" s="3">
-        <v>0.50964487291768001</v>
+      <c r="M44" s="13">
+        <v>0.53118774000000002</v>
       </c>
       <c r="N44" s="3">
         <v>60.465531062124199</v>
@@ -12854,8 +12847,8 @@
       <c r="L45" s="3">
         <v>1.26001103576953</v>
       </c>
-      <c r="M45" s="3">
-        <v>1.7662875919342</v>
+      <c r="M45" s="13">
+        <v>1.8250853199999999</v>
       </c>
       <c r="N45" s="3">
         <v>60.496000000000002</v>
@@ -13093,8 +13086,8 @@
       <c r="L46" s="3">
         <v>0.94967033257724998</v>
       </c>
-      <c r="M46" s="6">
-        <v>5.3439140319824197E-6</v>
+      <c r="M46" s="12">
+        <v>0</v>
       </c>
       <c r="N46" s="3">
         <v>60.311599999999999</v>
@@ -13332,8 +13325,8 @@
       <c r="L47" s="3">
         <v>1.22603328987271</v>
       </c>
-      <c r="M47" s="3">
-        <v>15.539232998848</v>
+      <c r="M47" s="13">
+        <v>15.539232999999999</v>
       </c>
       <c r="N47" s="3">
         <v>60.311599999999999</v>
@@ -13571,8 +13564,8 @@
       <c r="L48" s="3">
         <v>0.98473687837701795</v>
       </c>
-      <c r="M48" s="3">
-        <v>0.43227423742443399</v>
+      <c r="M48" s="13">
+        <v>0.43227423999999998</v>
       </c>
       <c r="N48" s="3">
         <v>60.256112224448898</v>
@@ -13810,8 +13803,8 @@
       <c r="L49" s="3">
         <v>1.2600813451377699</v>
       </c>
-      <c r="M49" s="3">
-        <v>1.17635759115219</v>
+      <c r="M49" s="13">
+        <v>1.1763575900000001</v>
       </c>
       <c r="N49" s="3">
         <v>60.311599999999999</v>
@@ -14049,8 +14042,8 @@
       <c r="L50" s="3">
         <v>0.95159301699819698</v>
       </c>
-      <c r="M50" s="6">
-        <v>5.6066513061523399E-6</v>
+      <c r="M50" s="12">
+        <v>0</v>
       </c>
       <c r="N50" s="3">
         <v>60.357439999999997</v>
@@ -14288,8 +14281,8 @@
       <c r="L51" s="3">
         <v>1.04089807065747</v>
       </c>
-      <c r="M51" s="3">
-        <v>16.676928522586799</v>
+      <c r="M51" s="13">
+        <v>16.676928499999999</v>
       </c>
       <c r="N51" s="3">
         <v>60.357439999999997</v>
@@ -14527,8 +14520,8 @@
       <c r="L52" s="3">
         <v>0.95637551439483603</v>
       </c>
-      <c r="M52" s="3">
-        <v>1.32950519132614</v>
+      <c r="M52" s="13">
+        <v>1.3295051899999999</v>
       </c>
       <c r="N52" s="3">
         <v>60.357439999999997</v>
@@ -14766,8 +14759,8 @@
       <c r="L53" s="3">
         <v>1.24232327186603</v>
       </c>
-      <c r="M53" s="3">
-        <v>9.6227689352035508</v>
+      <c r="M53" s="13">
+        <v>9.6227689400000003</v>
       </c>
       <c r="N53" s="3">
         <v>60.357439999999997</v>
@@ -14979,7 +14972,7 @@
         <v>1000</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>43</v>
@@ -15005,8 +14998,8 @@
       <c r="L54" s="3">
         <v>0.84210757756379995</v>
       </c>
-      <c r="M54" s="6">
-        <v>5.4273605346679703E-6</v>
+      <c r="M54" s="12">
+        <v>0</v>
       </c>
       <c r="N54" s="3">
         <v>60.401440000000001</v>
@@ -15218,7 +15211,7 @@
         <v>1000</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>44</v>
@@ -15244,8 +15237,8 @@
       <c r="L55" s="3">
         <v>0.873088742035103</v>
       </c>
-      <c r="M55" s="3">
-        <v>17.194790024280501</v>
+      <c r="M55" s="13">
+        <v>17.194790000000001</v>
       </c>
       <c r="N55" s="3">
         <v>60.401440000000001</v>
@@ -15457,7 +15450,7 @@
         <v>1000</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>45</v>
@@ -15483,8 +15476,8 @@
       <c r="L56" s="3">
         <v>0.84602558757045898</v>
       </c>
-      <c r="M56" s="3">
-        <v>1.2948420581817599</v>
+      <c r="M56" s="13">
+        <v>1.2948420599999999</v>
       </c>
       <c r="N56" s="3">
         <v>60.401440000000001</v>
@@ -15696,7 +15689,7 @@
         <v>1000</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>64</v>
+        <v>93</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>46</v>
@@ -15722,8 +15715,8 @@
       <c r="L57" s="3">
         <v>1.1356107017331301</v>
       </c>
-      <c r="M57" s="3">
-        <v>10.393637303352399</v>
+      <c r="M57" s="13">
+        <v>10.3936373</v>
       </c>
       <c r="N57" s="3">
         <v>60.401440000000001</v>
@@ -15935,7 +15928,7 @@
         <v>1000</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>43</v>
@@ -15961,8 +15954,8 @@
       <c r="L58" s="3">
         <v>0.93141802143526697</v>
       </c>
-      <c r="M58" s="6">
-        <v>5.5723190307617204E-6</v>
+      <c r="M58" s="12">
+        <v>0</v>
       </c>
       <c r="N58" s="3">
         <v>60.364980000000003</v>
@@ -16174,7 +16167,7 @@
         <v>1000</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>44</v>
@@ -16200,8 +16193,8 @@
       <c r="L59" s="3">
         <v>1.1078788099463599</v>
       </c>
-      <c r="M59" s="3">
-        <v>25.957709099872901</v>
+      <c r="M59" s="13">
+        <v>25.957709099999999</v>
       </c>
       <c r="N59" s="3">
         <v>60.364980000000003</v>
@@ -16413,7 +16406,7 @@
         <v>1000</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>45</v>
@@ -16439,8 +16432,8 @@
       <c r="L60" s="3">
         <v>0.93036621539387498</v>
       </c>
-      <c r="M60" s="3">
-        <v>1.3012708516120901</v>
+      <c r="M60" s="13">
+        <v>1.3012708500000001</v>
       </c>
       <c r="N60" s="3">
         <v>60.364980000000003</v>
@@ -16652,7 +16645,7 @@
         <v>1000</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>46</v>
@@ -16678,8 +16671,8 @@
       <c r="L61" s="3">
         <v>1.28286436787644</v>
       </c>
-      <c r="M61" s="3">
-        <v>11.0737150530815</v>
+      <c r="M61" s="13">
+        <v>11.073715099999999</v>
       </c>
       <c r="N61" s="3">
         <v>60.364980000000003</v>
@@ -16891,7 +16884,7 @@
         <v>1000</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>43</v>
@@ -16917,8 +16910,8 @@
       <c r="L62" s="3">
         <v>0.95159301699819698</v>
       </c>
-      <c r="M62" s="6">
-        <v>5.6066513061523399E-6</v>
+      <c r="M62" s="12">
+        <v>0</v>
       </c>
       <c r="N62" s="3">
         <v>60.357439999999997</v>
@@ -17130,7 +17123,7 @@
         <v>1000</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>44</v>
@@ -17156,8 +17149,8 @@
       <c r="L63" s="3">
         <v>1.04089807065747</v>
       </c>
-      <c r="M63" s="3">
-        <v>16.676928522586799</v>
+      <c r="M63" s="13">
+        <v>16.676928499999999</v>
       </c>
       <c r="N63" s="3">
         <v>60.357439999999997</v>
@@ -17369,7 +17362,7 @@
         <v>1000</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>45</v>
@@ -17395,8 +17388,8 @@
       <c r="L64" s="3">
         <v>0.95637551439483603</v>
       </c>
-      <c r="M64" s="3">
-        <v>1.32950519132614</v>
+      <c r="M64" s="13">
+        <v>1.3295051899999999</v>
       </c>
       <c r="N64" s="3">
         <v>60.357439999999997</v>
@@ -17608,7 +17601,7 @@
         <v>1000</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>46</v>
@@ -17634,8 +17627,8 @@
       <c r="L65" s="3">
         <v>1.24232327186603</v>
       </c>
-      <c r="M65" s="3">
-        <v>9.6227689352035508</v>
+      <c r="M65" s="13">
+        <v>9.6227689400000003</v>
       </c>
       <c r="N65" s="3">
         <v>60.357439999999997</v>

--- a/2.Simulation/Sim_results.xlsx
+++ b/2.Simulation/Sim_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Statsmed_Heckman/2.Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B1ACA4-96C4-5241-ACB2-63F958BF9BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87BC81C-6C3F-5D46-9565-5B8324063B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="900" windowWidth="25600" windowHeight="14400" xr2:uid="{DC0BC952-AACA-B145-BB83-BD649808B36D}"/>
   </bookViews>
@@ -209,21 +209,6 @@
     <t>SE_EmpSE_Re_3</t>
   </si>
   <si>
-    <t>100-1000</t>
-  </si>
-  <si>
-    <t>50-1000</t>
-  </si>
-  <si>
-    <t>10-1000</t>
-  </si>
-  <si>
-    <t>10-100</t>
-  </si>
-  <si>
-    <t>10-50</t>
-  </si>
-  <si>
     <t>RMSE_Qbar_0</t>
   </si>
   <si>
@@ -321,6 +306,21 @@
   </si>
   <si>
     <t>ry*=f(y*)</t>
+  </si>
+  <si>
+    <t>100;1000</t>
+  </si>
+  <si>
+    <t>50;1000</t>
+  </si>
+  <si>
+    <t>10;100</t>
+  </si>
+  <si>
+    <t>10;50</t>
+  </si>
+  <si>
+    <t>10;1000</t>
   </si>
 </sst>
 </file>
@@ -2269,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEA9965-9F07-DD49-A5E5-6730667C7B83}">
   <dimension ref="A1:CA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="D69" sqref="D69"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="D54" sqref="D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2389,34 +2389,34 @@
         <v>30</v>
       </c>
       <c r="AF1" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AG1" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH1" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI1" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ1" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="AK1" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="AG1" s="11" t="s">
+      <c r="AL1" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="AH1" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="AI1" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="AJ1" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="AK1" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="AL1" s="11" t="s">
-        <v>68</v>
-      </c>
       <c r="AM1" s="11" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="AN1" s="11" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AO1" s="11" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="AP1" s="11" t="s">
         <v>31</v>
@@ -2452,25 +2452,25 @@
         <v>41</v>
       </c>
       <c r="BA1" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="BB1" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="BC1" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="BD1" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="BE1" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="BF1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="BB1" s="11" t="s">
+      <c r="BG1" s="11" t="s">
         <v>70</v>
-      </c>
-      <c r="BC1" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="BD1" s="11" t="s">
-        <v>72</v>
-      </c>
-      <c r="BE1" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="BF1" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="BG1" s="11" t="s">
-        <v>75</v>
       </c>
       <c r="BH1" s="11" t="s">
         <v>50</v>
@@ -2494,43 +2494,43 @@
         <v>56</v>
       </c>
       <c r="BO1" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="BP1" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="BQ1" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="BR1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="BS1" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="BT1" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="BP1" s="11" t="s">
+      <c r="BU1" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="BQ1" s="11" t="s">
+      <c r="BV1" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="BR1" s="11" t="s">
+      <c r="BW1" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="BS1" s="11" t="s">
+      <c r="BX1" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="BT1" s="11" t="s">
+      <c r="BY1" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="BU1" s="11" t="s">
+      <c r="BZ1" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="BV1" s="11" t="s">
+      <c r="CA1" s="11" t="s">
         <v>83</v>
-      </c>
-      <c r="BW1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="BX1" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="BY1" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="BZ1" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="CA1" s="11" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:79" x14ac:dyDescent="0.2">
@@ -10192,7 +10192,7 @@
         <v>1000</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>43</v>
@@ -10431,7 +10431,7 @@
         <v>1000</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>44</v>
@@ -10670,7 +10670,7 @@
         <v>1000</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>45</v>
@@ -10909,7 +10909,7 @@
         <v>1000</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>57</v>
+        <v>90</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>46</v>
@@ -11148,7 +11148,7 @@
         <v>1000</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>43</v>
@@ -11387,7 +11387,7 @@
         <v>1000</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>44</v>
@@ -11626,7 +11626,7 @@
         <v>1000</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>45</v>
@@ -11865,7 +11865,7 @@
         <v>1000</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>46</v>
@@ -12104,7 +12104,7 @@
         <v>100</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>43</v>
@@ -12343,7 +12343,7 @@
         <v>100</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>44</v>
@@ -12582,7 +12582,7 @@
         <v>100</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>45</v>
@@ -12821,7 +12821,7 @@
         <v>100</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>46</v>
@@ -13060,7 +13060,7 @@
         <v>50</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>43</v>
@@ -13299,7 +13299,7 @@
         <v>50</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>44</v>
@@ -13538,7 +13538,7 @@
         <v>50</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>45</v>
@@ -13777,7 +13777,7 @@
         <v>50</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>46</v>
@@ -14016,7 +14016,7 @@
         <v>1000</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>43</v>
@@ -14255,7 +14255,7 @@
         <v>1000</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>44</v>
@@ -14494,7 +14494,7 @@
         <v>1000</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>45</v>
@@ -14733,7 +14733,7 @@
         <v>1000</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>59</v>
+        <v>94</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>46</v>
@@ -14972,7 +14972,7 @@
         <v>1000</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>43</v>
@@ -15211,7 +15211,7 @@
         <v>1000</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>44</v>
@@ -15450,7 +15450,7 @@
         <v>1000</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>45</v>
@@ -15689,7 +15689,7 @@
         <v>1000</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>46</v>
@@ -15928,7 +15928,7 @@
         <v>1000</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>43</v>
@@ -16167,7 +16167,7 @@
         <v>1000</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>44</v>
@@ -16406,7 +16406,7 @@
         <v>1000</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>45</v>
@@ -16645,7 +16645,7 @@
         <v>1000</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>46</v>
@@ -16884,7 +16884,7 @@
         <v>1000</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>43</v>
@@ -17123,7 +17123,7 @@
         <v>1000</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>44</v>
@@ -17362,7 +17362,7 @@
         <v>1000</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>45</v>
@@ -17601,7 +17601,7 @@
         <v>1000</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>46</v>

--- a/2.Simulation/Sim_results.xlsx
+++ b/2.Simulation/Sim_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Statsmed_Heckman/2.Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D87BC81C-6C3F-5D46-9565-5B8324063B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F641F-B146-EE47-B82B-A26DFCA170AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="900" windowWidth="25600" windowHeight="14400" xr2:uid="{DC0BC952-AACA-B145-BB83-BD649808B36D}"/>
   </bookViews>
@@ -305,9 +305,6 @@
     <t>Skewed-t</t>
   </si>
   <si>
-    <t>ry*=f(y*)</t>
-  </si>
-  <si>
     <t>100;1000</t>
   </si>
   <si>
@@ -321,6 +318,9 @@
   </si>
   <si>
     <t>10;1000</t>
+  </si>
+  <si>
+    <t>Explicit</t>
   </si>
 </sst>
 </file>
@@ -2269,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEA9965-9F07-DD49-A5E5-6730667C7B83}">
   <dimension ref="A1:CA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D54" sqref="D54"/>
+    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10192,7 +10192,7 @@
         <v>1000</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>43</v>
@@ -10431,7 +10431,7 @@
         <v>1000</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>44</v>
@@ -10670,7 +10670,7 @@
         <v>1000</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>45</v>
@@ -10909,7 +10909,7 @@
         <v>1000</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>46</v>
@@ -11148,7 +11148,7 @@
         <v>1000</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>43</v>
@@ -11387,7 +11387,7 @@
         <v>1000</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>44</v>
@@ -11626,7 +11626,7 @@
         <v>1000</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>45</v>
@@ -11865,7 +11865,7 @@
         <v>1000</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>46</v>
@@ -12104,7 +12104,7 @@
         <v>100</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>43</v>
@@ -12343,7 +12343,7 @@
         <v>100</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>44</v>
@@ -12582,7 +12582,7 @@
         <v>100</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>45</v>
@@ -12821,7 +12821,7 @@
         <v>100</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>46</v>
@@ -13060,7 +13060,7 @@
         <v>50</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>43</v>
@@ -13299,7 +13299,7 @@
         <v>50</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>44</v>
@@ -13538,7 +13538,7 @@
         <v>50</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>45</v>
@@ -13777,7 +13777,7 @@
         <v>50</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>46</v>
@@ -14016,7 +14016,7 @@
         <v>1000</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>43</v>
@@ -14255,7 +14255,7 @@
         <v>1000</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>44</v>
@@ -14494,7 +14494,7 @@
         <v>1000</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>45</v>
@@ -14733,7 +14733,7 @@
         <v>1000</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>46</v>
@@ -15928,7 +15928,7 @@
         <v>1000</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>43</v>
@@ -16167,7 +16167,7 @@
         <v>1000</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>44</v>
@@ -16406,7 +16406,7 @@
         <v>1000</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>45</v>
@@ -16645,7 +16645,7 @@
         <v>1000</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>46</v>

--- a/2.Simulation/Sim_results.xlsx
+++ b/2.Simulation/Sim_results.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jmunozav/Desktop/Statsmed_Heckman/2.Simulation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57F641F-B146-EE47-B82B-A26DFCA170AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A00D34F6-045F-334B-A939-61DD4872163F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2180" yWindow="900" windowWidth="25600" windowHeight="14400" xr2:uid="{DC0BC952-AACA-B145-BB83-BD649808B36D}"/>
   </bookViews>
@@ -320,7 +320,7 @@
     <t>10;1000</t>
   </si>
   <si>
-    <t>Explicit</t>
+    <t>Self-masking</t>
   </si>
 </sst>
 </file>
@@ -2269,8 +2269,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EEA9965-9F07-DD49-A5E5-6730667C7B83}">
   <dimension ref="A1:CA65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="D61" sqref="D61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
